--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H2">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I2">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J2">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>85.23959145630006</v>
+        <v>94.24334833220499</v>
       </c>
       <c r="R2">
-        <v>85.23959145630006</v>
+        <v>376.97339332882</v>
       </c>
       <c r="S2">
-        <v>0.001886399450639198</v>
+        <v>0.001947497657818109</v>
       </c>
       <c r="T2">
-        <v>0.001886399450639198</v>
+        <v>0.001066446472751142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H3">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I3">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J3">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>6128.036758470391</v>
+        <v>6520.558356431789</v>
       </c>
       <c r="R3">
-        <v>6128.036758470391</v>
+        <v>39123.35013859074</v>
       </c>
       <c r="S3">
-        <v>0.1356168533562459</v>
+        <v>0.1347444923333413</v>
       </c>
       <c r="T3">
-        <v>0.1356168533562459</v>
+        <v>0.110678789261699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H4">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I4">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J4">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>8584.393889264918</v>
+        <v>8698.516719036988</v>
       </c>
       <c r="R4">
-        <v>8584.393889264918</v>
+        <v>52191.10031422193</v>
       </c>
       <c r="S4">
-        <v>0.1899773994703134</v>
+        <v>0.1797510512583022</v>
       </c>
       <c r="T4">
-        <v>0.1899773994703134</v>
+        <v>0.1476470642864541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H5">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I5">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J5">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>6510.724313135246</v>
+        <v>6703.083943152888</v>
       </c>
       <c r="R5">
-        <v>6510.724313135246</v>
+        <v>40218.50365891733</v>
       </c>
       <c r="S5">
-        <v>0.144085941259563</v>
+        <v>0.1385163039139125</v>
       </c>
       <c r="T5">
-        <v>0.144085941259563</v>
+        <v>0.1137769458678193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H6">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I6">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J6">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>231.0619982845065</v>
+        <v>291.9057181113184</v>
       </c>
       <c r="R6">
-        <v>231.0619982845065</v>
+        <v>1751.43430866791</v>
       </c>
       <c r="S6">
-        <v>0.005113530217363248</v>
+        <v>0.006032104253359195</v>
       </c>
       <c r="T6">
-        <v>0.005113530217363248</v>
+        <v>0.004954755358835116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H7">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I7">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J7">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>1396.073946297023</v>
+        <v>1398.603116543354</v>
       </c>
       <c r="R7">
-        <v>1396.073946297023</v>
+        <v>5594.412466173414</v>
       </c>
       <c r="S7">
-        <v>0.0308958909862508</v>
+        <v>0.02890152293914748</v>
       </c>
       <c r="T7">
-        <v>0.0308958909862508</v>
+        <v>0.01582642580947779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H8">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I8">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J8">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>4.569095884601428</v>
+        <v>0.07879394316533334</v>
       </c>
       <c r="R8">
-        <v>4.569095884601428</v>
+        <v>0.472763658992</v>
       </c>
       <c r="S8">
-        <v>0.000101116626902755</v>
+        <v>1.628242443422422E-06</v>
       </c>
       <c r="T8">
-        <v>0.000101116626902755</v>
+        <v>1.337434273875046E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H9">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I9">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J9">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>328.4810151649769</v>
+        <v>5.451636785355555</v>
       </c>
       <c r="R9">
-        <v>328.4810151649769</v>
+        <v>49.0647310682</v>
       </c>
       <c r="S9">
-        <v>0.007269467109896861</v>
+        <v>0.0001126556946314153</v>
       </c>
       <c r="T9">
-        <v>0.007269467109896861</v>
+        <v>0.0001388026590474097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H10">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I10">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J10">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>460.1490706504204</v>
+        <v>7.272560282626223</v>
       </c>
       <c r="R10">
-        <v>460.1490706504204</v>
+        <v>65.45304254363602</v>
       </c>
       <c r="S10">
-        <v>0.01018335422844093</v>
+        <v>0.0001502842839033094</v>
       </c>
       <c r="T10">
-        <v>0.01018335422844093</v>
+        <v>0.0001851647028325027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H11">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I11">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J11">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>348.9942074648696</v>
+        <v>5.604240772383111</v>
       </c>
       <c r="R11">
-        <v>348.9942074648696</v>
+        <v>50.43816695144801</v>
       </c>
       <c r="S11">
-        <v>0.007723435436401713</v>
+        <v>0.0001158091894145407</v>
       </c>
       <c r="T11">
-        <v>0.007723435436401713</v>
+        <v>0.000142688068148317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H12">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I12">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J12">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>12.38561104543505</v>
+        <v>0.2440533254551112</v>
       </c>
       <c r="R12">
-        <v>12.38561104543505</v>
+        <v>2.196479929096001</v>
       </c>
       <c r="S12">
-        <v>0.0002741004440866852</v>
+        <v>5.043255445797142E-06</v>
       </c>
       <c r="T12">
-        <v>0.0002741004440866852</v>
+        <v>6.213776129313975E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H13">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I13">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J13">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>74.8337200313217</v>
+        <v>1.169328726387333</v>
       </c>
       <c r="R13">
-        <v>74.8337200313217</v>
+        <v>7.015972358324</v>
       </c>
       <c r="S13">
-        <v>0.001656111742731015</v>
+        <v>2.416366774057596E-05</v>
       </c>
       <c r="T13">
-        <v>0.001656111742731015</v>
+        <v>1.984797629451725E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.88457751260344</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H14">
-        <v>5.88457751260344</v>
+        <v>12.642862</v>
       </c>
       <c r="I14">
-        <v>0.06410014069972245</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J14">
-        <v>0.06410014069972245</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>10.76463356593092</v>
+        <v>8.508839983217332</v>
       </c>
       <c r="R14">
-        <v>10.76463356593092</v>
+        <v>51.053039899304</v>
       </c>
       <c r="S14">
-        <v>0.0002382273131320072</v>
+        <v>0.0001758314643029527</v>
       </c>
       <c r="T14">
-        <v>0.0002382273131320072</v>
+        <v>0.0001444275253567973</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.88457751260344</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H15">
-        <v>5.88457751260344</v>
+        <v>12.642862</v>
       </c>
       <c r="I15">
-        <v>0.06410014069972245</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J15">
-        <v>0.06410014069972245</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>773.8900322781088</v>
+        <v>588.7140964106554</v>
       </c>
       <c r="R15">
-        <v>773.8900322781088</v>
+        <v>5298.426867695899</v>
       </c>
       <c r="S15">
-        <v>0.01712661577563999</v>
+        <v>0.0121655198395839</v>
       </c>
       <c r="T15">
-        <v>0.01712661577563999</v>
+        <v>0.01498909138994715</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.88457751260344</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H16">
-        <v>5.88457751260344</v>
+        <v>12.642862</v>
       </c>
       <c r="I16">
-        <v>0.06410014069972245</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J16">
-        <v>0.06410014069972245</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>1084.095465789841</v>
+        <v>785.3528993126203</v>
       </c>
       <c r="R16">
-        <v>1084.095465789841</v>
+        <v>7068.176093813582</v>
       </c>
       <c r="S16">
-        <v>0.02399163412408934</v>
+        <v>0.01622897487237659</v>
       </c>
       <c r="T16">
-        <v>0.02399163412408934</v>
+        <v>0.01999565910333749</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.88457751260344</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H17">
-        <v>5.88457751260344</v>
+        <v>12.642862</v>
       </c>
       <c r="I17">
-        <v>0.06410014069972245</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J17">
-        <v>0.06410014069972245</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>822.2184114482657</v>
+        <v>605.1935725512751</v>
       </c>
       <c r="R17">
-        <v>822.2184114482657</v>
+        <v>5446.742152961476</v>
       </c>
       <c r="S17">
-        <v>0.01819614961970592</v>
+        <v>0.01250606102104529</v>
       </c>
       <c r="T17">
-        <v>0.01819614961970592</v>
+        <v>0.01540867090305244</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.88457751260344</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H18">
-        <v>5.88457751260344</v>
+        <v>12.642862</v>
       </c>
       <c r="I18">
-        <v>0.06410014069972245</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J18">
-        <v>0.06410014069972245</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>29.18007583154171</v>
+        <v>26.35495331553912</v>
       </c>
       <c r="R18">
-        <v>29.18007583154171</v>
+        <v>237.194579839852</v>
       </c>
       <c r="S18">
-        <v>0.0006457712675271397</v>
+        <v>0.0005446136068191751</v>
       </c>
       <c r="T18">
-        <v>0.0006457712675271397</v>
+        <v>0.000671016383390368</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.88457751260344</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H19">
-        <v>5.88457751260344</v>
+        <v>12.642862</v>
       </c>
       <c r="I19">
-        <v>0.06410014069972245</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J19">
-        <v>0.06410014069972245</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>176.3056838503867</v>
+        <v>126.2740589049063</v>
       </c>
       <c r="R19">
-        <v>176.3056838503867</v>
+        <v>757.644353429438</v>
       </c>
       <c r="S19">
-        <v>0.003901742599628057</v>
+        <v>0.002609398310994172</v>
       </c>
       <c r="T19">
-        <v>0.003901742599628057</v>
+        <v>0.002143353251484958</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.6389151303161</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H20">
-        <v>34.6389151303161</v>
+        <v>17.777221</v>
       </c>
       <c r="I20">
-        <v>0.377318393509729</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J20">
-        <v>0.377318393509729</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>63.3648257161399</v>
+        <v>11.96434231705533</v>
       </c>
       <c r="R20">
-        <v>63.3648257161399</v>
+        <v>71.78605390233199</v>
       </c>
       <c r="S20">
-        <v>0.001402298748487729</v>
+        <v>0.0002472379117692814</v>
       </c>
       <c r="T20">
-        <v>0.001402298748487729</v>
+        <v>0.0002030806028532851</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.6389151303161</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H21">
-        <v>34.6389151303161</v>
+        <v>17.777221</v>
       </c>
       <c r="I21">
-        <v>0.377318393509729</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J21">
-        <v>0.377318393509729</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>4555.418140191893</v>
+        <v>827.795209479272</v>
       </c>
       <c r="R21">
-        <v>4555.418140191893</v>
+        <v>7450.156885313448</v>
       </c>
       <c r="S21">
-        <v>0.1008139308304333</v>
+        <v>0.01710602668669226</v>
       </c>
       <c r="T21">
-        <v>0.1008139308304333</v>
+        <v>0.0210762713559863</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.6389151303161</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H22">
-        <v>34.6389151303161</v>
+        <v>17.777221</v>
       </c>
       <c r="I22">
-        <v>0.377318393509729</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J22">
-        <v>0.377318393509729</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>6381.408138855699</v>
+        <v>1104.290472684998</v>
       </c>
       <c r="R22">
-        <v>6381.408138855699</v>
+        <v>9938.614254164981</v>
       </c>
       <c r="S22">
-        <v>0.1412241025769508</v>
+        <v>0.02281968061580404</v>
       </c>
       <c r="T22">
-        <v>0.1412241025769508</v>
+        <v>0.02811604294349589</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.6389151303161</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H23">
-        <v>34.6389151303161</v>
+        <v>17.777221</v>
       </c>
       <c r="I23">
-        <v>0.377318393509729</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J23">
-        <v>0.377318393509729</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>4839.897802644359</v>
+        <v>850.9671217659063</v>
       </c>
       <c r="R23">
-        <v>4839.897802644359</v>
+        <v>7658.704095893158</v>
       </c>
       <c r="S23">
-        <v>0.1071096235924461</v>
+        <v>0.01758486413998727</v>
       </c>
       <c r="T23">
-        <v>0.1071096235924461</v>
+        <v>0.02166624518719201</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.6389151303161</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H24">
-        <v>34.6389151303161</v>
+        <v>17.777221</v>
       </c>
       <c r="I24">
-        <v>0.377318393509729</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J24">
-        <v>0.377318393509729</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>171.7652912312104</v>
+        <v>37.05789318391845</v>
       </c>
       <c r="R24">
-        <v>171.7652912312104</v>
+        <v>333.521038655266</v>
       </c>
       <c r="S24">
-        <v>0.003801261191913995</v>
+        <v>0.0007657851875652508</v>
       </c>
       <c r="T24">
-        <v>0.003801261191913995</v>
+        <v>0.0009435210589304305</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.6389151303161</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H25">
-        <v>34.6389151303161</v>
+        <v>17.777221</v>
       </c>
       <c r="I25">
-        <v>0.377318393509729</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J25">
-        <v>0.377318393509729</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>1037.803921658945</v>
+        <v>177.5548805104048</v>
       </c>
       <c r="R25">
-        <v>1037.803921658945</v>
+        <v>1065.329283062429</v>
       </c>
       <c r="S25">
-        <v>0.02296717656949709</v>
+        <v>0.003669094106347923</v>
       </c>
       <c r="T25">
-        <v>0.02296717656949709</v>
+        <v>0.00301378472949532</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.18471258276918</v>
+        <v>36.230025</v>
       </c>
       <c r="H26">
-        <v>2.18471258276918</v>
+        <v>108.690075</v>
       </c>
       <c r="I26">
-        <v>0.02379786546171301</v>
+        <v>0.3802466084896404</v>
       </c>
       <c r="J26">
-        <v>0.02379786546171301</v>
+        <v>0.4586664503915251</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>3.996485788490214</v>
+        <v>73.15008705614999</v>
       </c>
       <c r="R26">
-        <v>3.996485788490214</v>
+        <v>438.9005223368999</v>
       </c>
       <c r="S26">
-        <v>8.844444778645285E-05</v>
+        <v>0.001511614620364261</v>
       </c>
       <c r="T26">
-        <v>8.844444778645285E-05</v>
+        <v>0.001241636471480485</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.18471258276918</v>
+        <v>36.230025</v>
       </c>
       <c r="H27">
-        <v>2.18471258276918</v>
+        <v>108.690075</v>
       </c>
       <c r="I27">
-        <v>0.02379786546171301</v>
+        <v>0.3802466084896404</v>
       </c>
       <c r="J27">
-        <v>0.02379786546171301</v>
+        <v>0.4586664503915251</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>287.3149835440988</v>
+        <v>5061.146700203749</v>
       </c>
       <c r="R27">
-        <v>287.3149835440988</v>
+        <v>45550.32030183374</v>
       </c>
       <c r="S27">
-        <v>0.006358439990832919</v>
+        <v>0.1045863874634052</v>
       </c>
       <c r="T27">
-        <v>0.006358439990832919</v>
+        <v>0.1288604959347978</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.18471258276918</v>
+        <v>36.230025</v>
       </c>
       <c r="H28">
-        <v>2.18471258276918</v>
+        <v>108.690075</v>
       </c>
       <c r="I28">
-        <v>0.02379786546171301</v>
+        <v>0.3802466084896404</v>
       </c>
       <c r="J28">
-        <v>0.02379786546171301</v>
+        <v>0.4586664503915251</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>402.482081332334</v>
+        <v>6751.641007214675</v>
       </c>
       <c r="R28">
-        <v>402.482081332334</v>
+        <v>60764.76906493207</v>
       </c>
       <c r="S28">
-        <v>0.008907151760654297</v>
+        <v>0.1395197144484949</v>
       </c>
       <c r="T28">
-        <v>0.008907151760654297</v>
+        <v>0.1719017171599425</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.18471258276918</v>
+        <v>36.230025</v>
       </c>
       <c r="H29">
-        <v>2.18471258276918</v>
+        <v>108.690075</v>
       </c>
       <c r="I29">
-        <v>0.02379786546171301</v>
+        <v>0.3802466084896404</v>
       </c>
       <c r="J29">
-        <v>0.02379786546171301</v>
+        <v>0.4586664503915251</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>305.2574132005601</v>
+        <v>5202.819961976649</v>
       </c>
       <c r="R29">
-        <v>305.2574132005601</v>
+        <v>46825.37965778985</v>
       </c>
       <c r="S29">
-        <v>0.006755515913755818</v>
+        <v>0.1075140035802011</v>
       </c>
       <c r="T29">
-        <v>0.006755515913755818</v>
+        <v>0.1324676007776631</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.18471258276918</v>
+        <v>36.230025</v>
       </c>
       <c r="H30">
-        <v>2.18471258276918</v>
+        <v>108.690075</v>
       </c>
       <c r="I30">
-        <v>0.02379786546171301</v>
+        <v>0.3802466084896404</v>
       </c>
       <c r="J30">
-        <v>0.02379786546171301</v>
+        <v>0.4586664503915251</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>10.83341645152769</v>
+        <v>226.57226286955</v>
       </c>
       <c r="R30">
-        <v>10.83341645152769</v>
+        <v>2039.15036582595</v>
       </c>
       <c r="S30">
-        <v>0.000239749516551643</v>
+        <v>0.004682016917624873</v>
       </c>
       <c r="T30">
-        <v>0.000239749516551643</v>
+        <v>0.00576869549291354</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>36.230025</v>
+      </c>
+      <c r="H31">
+        <v>108.690075</v>
+      </c>
+      <c r="I31">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J31">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>29.9633245</v>
+      </c>
+      <c r="N31">
+        <v>59.926649</v>
+      </c>
+      <c r="O31">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P31">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q31">
+        <v>1085.571995718112</v>
+      </c>
+      <c r="R31">
+        <v>6513.431974308674</v>
+      </c>
+      <c r="S31">
+        <v>0.02243287145955004</v>
+      </c>
+      <c r="T31">
+        <v>0.01842630455472771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.1940915</v>
+      </c>
+      <c r="H32">
+        <v>4.388183</v>
+      </c>
+      <c r="I32">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J32">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.019046</v>
+      </c>
+      <c r="N32">
+        <v>4.038092</v>
+      </c>
+      <c r="O32">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P32">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q32">
+        <v>4.429971666708999</v>
+      </c>
+      <c r="R32">
+        <v>17.719886666836</v>
+      </c>
+      <c r="S32">
+        <v>9.154343089238698E-05</v>
+      </c>
+      <c r="T32">
+        <v>5.012903023878352E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.1940915</v>
+      </c>
+      <c r="H33">
+        <v>4.388183</v>
+      </c>
+      <c r="I33">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J33">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N33">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P33">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q33">
+        <v>306.5032098423916</v>
+      </c>
+      <c r="R33">
+        <v>1839.01925905435</v>
+      </c>
+      <c r="S33">
+        <v>0.00633375504844846</v>
+      </c>
+      <c r="T33">
+        <v>0.005202530568063818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.1940915</v>
+      </c>
+      <c r="H34">
+        <v>4.388183</v>
+      </c>
+      <c r="I34">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J34">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N34">
+        <v>559.064561</v>
+      </c>
+      <c r="O34">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P34">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q34">
+        <v>408.8796004137772</v>
+      </c>
+      <c r="R34">
+        <v>2453.277602482663</v>
+      </c>
+      <c r="S34">
+        <v>0.008449318474217721</v>
+      </c>
+      <c r="T34">
+        <v>0.006940249078971266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.1940915</v>
+      </c>
+      <c r="H35">
+        <v>4.388183</v>
+      </c>
+      <c r="I35">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J35">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N35">
+        <v>430.815598</v>
+      </c>
+      <c r="O35">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P35">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q35">
+        <v>315.0829472130723</v>
+      </c>
+      <c r="R35">
+        <v>1890.497683278434</v>
+      </c>
+      <c r="S35">
+        <v>0.006511051576317954</v>
+      </c>
+      <c r="T35">
+        <v>0.005348161492972821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.18471258276918</v>
-      </c>
-      <c r="H31">
-        <v>2.18471258276918</v>
-      </c>
-      <c r="I31">
-        <v>0.02379786546171301</v>
-      </c>
-      <c r="J31">
-        <v>0.02379786546171301</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="N31">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="O31">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="P31">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="Q31">
-        <v>65.45537807883437</v>
-      </c>
-      <c r="R31">
-        <v>65.45537807883437</v>
-      </c>
-      <c r="S31">
-        <v>0.001448563832131884</v>
-      </c>
-      <c r="T31">
-        <v>0.001448563832131884</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.1940915</v>
+      </c>
+      <c r="H36">
+        <v>4.388183</v>
+      </c>
+      <c r="I36">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J36">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N36">
+        <v>18.761146</v>
+      </c>
+      <c r="O36">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P36">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q36">
+        <v>13.72122365628634</v>
+      </c>
+      <c r="R36">
+        <v>82.32734193771802</v>
+      </c>
+      <c r="S36">
+        <v>0.0002835430977984955</v>
+      </c>
+      <c r="T36">
+        <v>0.0002329015919271361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.1940915</v>
+      </c>
+      <c r="H37">
+        <v>4.388183</v>
+      </c>
+      <c r="I37">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J37">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>29.9633245</v>
+      </c>
+      <c r="N37">
+        <v>59.926649</v>
+      </c>
+      <c r="O37">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P37">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q37">
+        <v>65.74227559719175</v>
+      </c>
+      <c r="R37">
+        <v>262.969102388767</v>
+      </c>
+      <c r="S37">
+        <v>0.001358535429936671</v>
+      </c>
+      <c r="T37">
+        <v>0.0007439317380163618</v>
       </c>
     </row>
   </sheetData>
